--- a/SprintBacklogLayout.xlsx
+++ b/SprintBacklogLayout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Industrial Team Proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\GitHub\IndustrialTeamProj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="45">
   <si>
     <t xml:space="preserve">Duration time in hours </t>
   </si>
@@ -68,15 +68,6 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>Additional Tasks</t>
-  </si>
-  <si>
-    <t>SCRUM Videos</t>
-  </si>
-  <si>
-    <t>Minutes document</t>
-  </si>
-  <si>
     <t xml:space="preserve">Github Updates </t>
   </si>
   <si>
@@ -131,16 +122,43 @@
     <t>Testing On Phone</t>
   </si>
   <si>
-    <t>Write up documentation</t>
-  </si>
-  <si>
     <t>Proof of Agile Approach</t>
   </si>
   <si>
-    <t>Presentation</t>
-  </si>
-  <si>
     <t>Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Weekly Individual Reflection Diary</t>
+  </si>
+  <si>
+    <t>Ethics Form</t>
+  </si>
+  <si>
+    <t>Proof of application and software engineering design</t>
+  </si>
+  <si>
+    <t>Usability evaluation</t>
+  </si>
+  <si>
+    <t>Additional Tasks Over Project</t>
+  </si>
+  <si>
+    <t>SCRUM Videos or  minutes to document daily meetings.</t>
+  </si>
+  <si>
+    <t>Video demo</t>
+  </si>
+  <si>
+    <t>Presentation writing</t>
+  </si>
+  <si>
+    <t>Final Team Report demonstrating software engineering - Appendix containing user guide + relevant source code</t>
+  </si>
+  <si>
+    <t>Risk Management/Assessment Spreadsheet For Team</t>
+  </si>
+  <si>
+    <t>Research competitor apps and use for evaluation againist ours</t>
   </si>
 </sst>
 </file>
@@ -240,7 +258,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -601,9 +703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -615,7 +719,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>12</v>
@@ -623,7 +727,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>13</v>
@@ -636,7 +740,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -675,18 +779,18 @@
         <v>11</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>3</v>
@@ -694,7 +798,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>3</v>
@@ -702,7 +806,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>3</v>
@@ -744,7 +848,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
@@ -789,12 +893,12 @@
         <v>7</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>3</v>
@@ -802,7 +906,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>3</v>
@@ -810,7 +914,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>3</v>
@@ -904,7 +1008,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
@@ -949,216 +1053,290 @@
         <v>7</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
       <c r="D31" s="7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="D36" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44">
-        <v>58</v>
-      </c>
-      <c r="F44">
-        <v>57</v>
-      </c>
-      <c r="G44">
-        <v>48</v>
-      </c>
-      <c r="H44">
-        <v>33</v>
-      </c>
-      <c r="I44">
-        <v>17</v>
-      </c>
-      <c r="J44">
-        <v>15</v>
-      </c>
-      <c r="K44">
-        <v>21</v>
-      </c>
-      <c r="L44">
-        <v>9</v>
-      </c>
-      <c r="M44">
-        <v>3</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>23</v>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="Done">
+  <conditionalFormatting sqref="D5 D31:D43">
+    <cfRule type="containsText" dxfId="23" priority="37" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="18" operator="containsText" text="Done">
+    <cfRule type="containsText" priority="38" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="20" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="21" priority="40" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D13">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="10" operator="containsText" text="Done">
+    <cfRule type="containsText" priority="30" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="18" priority="32" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D28">
+    <cfRule type="containsText" dxfId="17" priority="25" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="26" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="28" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="18" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="14" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="16" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="10" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",D47)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="6" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",D47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",D47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D16)))</formula>
+      <formula>NOT(ISERROR(SEARCH("To Do",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D42">
+  <conditionalFormatting sqref="D48">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="2" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("To Do",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D13 D16:D28 D31:D42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D13 D16:D28 D31:D48">
       <formula1>$P$1:$P$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/SprintBacklogLayout.xlsx
+++ b/SprintBacklogLayout.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="69">
   <si>
     <t xml:space="preserve">Duration time in hours </t>
   </si>
@@ -44,9 +44,6 @@
     <t>Mon</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue </t>
-  </si>
-  <si>
     <t>Wed</t>
   </si>
   <si>
@@ -228,6 +225,15 @@
   </si>
   <si>
     <t>Merge image scrollable slideshow and format info page layout</t>
+  </si>
+  <si>
+    <t>Pinch zoom images</t>
+  </si>
+  <si>
+    <t>Circle icons images</t>
+  </si>
+  <si>
+    <t>Mock expert system in android</t>
   </si>
 </sst>
 </file>
@@ -305,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,11 +329,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="127">
+  <dxfs count="80">
     <dxf>
       <fill>
         <patternFill>
@@ -717,335 +724,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1493,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1509,25 +1187,25 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -1539,28 +1217,28 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>3</v>
@@ -1568,13 +1246,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
@@ -1582,16 +1260,37 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>3</v>
@@ -1599,16 +1298,37 @@
       <c r="E6">
         <v>3</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
@@ -1616,16 +1336,37 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>3</v>
@@ -1633,346 +1374,440 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>7</v>
       </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="9">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
+      <c r="C18" s="9">
+        <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20">
+      <c r="K20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
         <v>4</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23">
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25">
         <v>4</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="3" t="s">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B27">
         <v>6</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E27" t="s">
-        <v>60</v>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29">
+      <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
@@ -1980,467 +1815,814 @@
       <c r="D30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" t="s">
+        <v>59</v>
+      </c>
+      <c r="L30" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" t="s">
+        <v>59</v>
+      </c>
+      <c r="L31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" t="s">
+        <v>59</v>
+      </c>
+      <c r="L37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" t="s">
+        <v>59</v>
+      </c>
+      <c r="J44" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" t="s">
+        <v>59</v>
+      </c>
+      <c r="L44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" t="s">
+        <v>59</v>
+      </c>
+      <c r="J45" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" t="s">
+        <v>59</v>
+      </c>
+      <c r="J46" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>18</v>
       </c>
-      <c r="B45">
+      <c r="B49">
         <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="106" priority="121" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="63" priority="129" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="123" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="62" priority="131" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="124" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="61" priority="132" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="85" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="75" priority="74" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="59" priority="82" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="58" priority="83" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="76" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="57" priority="84" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="81" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="55" priority="78" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="54" priority="79" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="53" priority="80" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="77" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="51" priority="74" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="50" priority="75" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="68" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="49" priority="76" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="73" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="63" priority="62" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="47" priority="70" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="46" priority="71" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="45" priority="72" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="69" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="43" priority="66" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="42" priority="67" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="41" priority="68" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="65" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="39" priority="62" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="38" priority="63" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="37" priority="64" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="61" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="51" priority="42" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="35" priority="50" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="34" priority="51" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="33" priority="52" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="48" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="49" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Done">
+  <conditionalFormatting sqref="D21">
+    <cfRule type="containsText" dxfId="31" priority="46" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="48" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="28" priority="45" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D47">
+    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D47">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D26">
+    <cfRule type="containsText" dxfId="23" priority="38" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="40" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D26">
+    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D17">
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D17">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="16" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D19">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D43">
-    <cfRule type="containsText" dxfId="35" priority="14" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="16" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D43">
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D23">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D23">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",D14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",D14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="D18:D19">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D28">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D43 D18:D23 D5:D15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D47 D21:D28 D5:D19">
       <formula1>colorList</formula1>
     </dataValidation>
   </dataValidations>
